--- a/40k_sim_workbook.xlsx
+++ b/40k_sim_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\git\40k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FBF1B0-8BBB-4542-9170-6B24FCC21803}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B697CF-CC5D-415B-B372-E077340D8B43}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="1" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Templar Ranged Weapons" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Weapon</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Shots</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Flamer</t>
   </si>
   <si>
@@ -208,6 +205,36 @@
   </si>
   <si>
     <t>Flash Git</t>
+  </si>
+  <si>
+    <t>Chainsword</t>
+  </si>
+  <si>
+    <t>Powersword</t>
+  </si>
+  <si>
+    <t>Poweraxe</t>
+  </si>
+  <si>
+    <t>Powerfist</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Hit function</t>
+  </si>
+  <si>
+    <t>Wound function</t>
+  </si>
+  <si>
+    <t>save function</t>
+  </si>
+  <si>
+    <t>Damage function</t>
+  </si>
+  <si>
+    <t>Attacks function</t>
   </si>
 </sst>
 </file>
@@ -272,12 +299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -626,692 +650,692 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDAFB37-BC4F-43E6-8574-A43CDCD4006E}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="6" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="11.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="6"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="29.85546875" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="5" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="29.85546875" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16">
-        <v>1</v>
-      </c>
-      <c r="B1" s="16">
+      <c r="A1" s="15">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15">
         <v>2</v>
       </c>
-      <c r="C1" s="16">
-        <v>3</v>
-      </c>
-      <c r="D1" s="16">
-        <v>4</v>
-      </c>
-      <c r="E1" s="16">
+      <c r="C1" s="15">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15">
         <v>5</v>
       </c>
-      <c r="F1" s="16">
-        <v>6</v>
-      </c>
-      <c r="G1" s="16">
+      <c r="F1" s="15">
+        <v>6</v>
+      </c>
+      <c r="G1" s="15">
         <v>7</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>8</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="15">
         <v>9</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="15">
         <v>10</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="15">
         <v>11</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>4</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>8</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>6</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>9</v>
+      </c>
+      <c r="G19" s="13">
+        <v>3</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
+        <v>6</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>8</v>
+      </c>
+      <c r="G20" s="12">
+        <v>4</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>6</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="13">
+        <v>7</v>
+      </c>
+      <c r="G21" s="13">
+        <v>3</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8">
+        <v>3</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5">
         <v>24</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>4</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="6">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>4</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-      <c r="F5" s="14">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
-        <v>6</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14">
-        <v>3</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4</v>
+      </c>
+      <c r="F23" s="13">
+        <v>5</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="5">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="C28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="6">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>8</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="6">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6">
-        <v>36</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>3</v>
-      </c>
-      <c r="F16" s="9">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="6">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>6</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6">
-        <v>48</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>8</v>
-      </c>
-      <c r="G18" s="9">
-        <v>2</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9">
-        <v>6</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="6">
-        <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14">
-        <v>9</v>
-      </c>
-      <c r="G19" s="14">
-        <v>3</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
-        <v>6</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="6">
-        <v>24</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14">
-        <v>8</v>
-      </c>
-      <c r="G20" s="13">
-        <v>4</v>
-      </c>
-      <c r="H20" s="13">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13">
-        <v>6</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="6">
-        <v>36</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3</v>
-      </c>
-      <c r="F21" s="14">
-        <v>7</v>
-      </c>
-      <c r="G21" s="14">
-        <v>3</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="6">
-        <v>36</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
-        <v>3</v>
-      </c>
-      <c r="F22" s="9">
-        <v>8</v>
-      </c>
-      <c r="G22" s="9">
-        <v>3</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>2</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="6">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4</v>
-      </c>
-      <c r="F23" s="14">
-        <v>5</v>
-      </c>
-      <c r="G23" s="14">
-        <v>3</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
-        <v>1</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="6">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6">
-        <v>4</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="6">
-        <v>24</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>3</v>
-      </c>
-      <c r="F28" s="6">
-        <v>5</v>
-      </c>
-      <c r="G28" s="6">
-        <v>2</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1325,56 +1349,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9B6098-EF80-434F-8A4C-B8A7BE87648E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="G2" s="1"/>
@@ -1382,56 +1418,59 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8">
         <v>-3</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
         <v>-1</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
@@ -1455,7 +1494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,76 +1503,76 @@
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16">
-        <v>1</v>
-      </c>
-      <c r="B1" s="16">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15">
         <v>2</v>
       </c>
-      <c r="C1" s="16">
-        <v>3</v>
-      </c>
-      <c r="D1" s="16">
-        <v>4</v>
-      </c>
-      <c r="E1" s="16">
+      <c r="C1" s="15">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15">
         <v>5</v>
       </c>
-      <c r="F1" s="16">
-        <v>6</v>
-      </c>
-      <c r="G1" s="16">
+      <c r="F1" s="15">
+        <v>6</v>
+      </c>
+      <c r="G1" s="15">
         <v>7</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>8</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="15">
         <v>9</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="15">
         <v>10</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="15">
         <v>11</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1635,7 +1674,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1667,7 +1706,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1699,7 +1738,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1749,10 +1788,10 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/40k_sim_workbook.xlsx
+++ b/40k_sim_workbook.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\git\40k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B697CF-CC5D-415B-B372-E077340D8B43}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FB4E9E-4884-4660-9FEB-05AEE3FF5A62}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="1" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="2" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Templar Ranged Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Templar Melee Weapons" sheetId="4" r:id="rId2"/>
-    <sheet name="Templar Units" sheetId="2" r:id="rId3"/>
+    <sheet name="Templar Models" sheetId="2" r:id="rId3"/>
     <sheet name="Army Sheet" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1349,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9B6098-EF80-434F-8A4C-B8A7BE87648E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
@@ -1492,9 +1492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC9FF83-A4B4-495A-8CD6-852B5A72C621}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/40k_sim_workbook.xlsx
+++ b/40k_sim_workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\git\40k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FB4E9E-4884-4660-9FEB-05AEE3FF5A62}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E62257-E759-43C2-AD08-32F210DAA92D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="2" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Weapon</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Attacks function</t>
+  </si>
+  <si>
+    <t>Radius</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -295,11 +298,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +348,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,7 +1509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,6 +1590,9 @@
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1607,6 +1625,9 @@
       <c r="J3">
         <v>3</v>
       </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1639,6 +1660,9 @@
       <c r="J4">
         <v>4</v>
       </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1671,6 +1695,9 @@
       <c r="J5">
         <v>3</v>
       </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1703,6 +1730,9 @@
       <c r="J8">
         <v>6</v>
       </c>
+      <c r="L8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1735,6 +1765,9 @@
       <c r="J9">
         <v>6</v>
       </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1766,6 +1799,9 @@
       </c>
       <c r="J10">
         <v>6</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/40k_sim_workbook.xlsx
+++ b/40k_sim_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\git\40k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E62257-E759-43C2-AD08-32F210DAA92D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71967C7-262F-4A33-A6D0-0FEB4C98195B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="2" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
@@ -1509,7 +1509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/40k_sim_workbook.xlsx
+++ b/40k_sim_workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\git\40k\pygame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Git\40k-Pygame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01311684-421D-44EA-ABCF-294CF2F6B71A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A458995-FB08-4DC1-AC41-B14AB8D3B599}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="1" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
+    <workbookView xWindow="28680" yWindow="990" windowWidth="21840" windowHeight="13740" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Templar Ranged Weapons" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,23 @@
     <sheet name="Templar Models" sheetId="2" r:id="rId3"/>
     <sheet name="Army Sheet" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>Weapon</t>
   </si>
@@ -247,6 +253,12 @@
   </si>
   <si>
     <t>CCW</t>
+  </si>
+  <si>
+    <t>Test Ork</t>
+  </si>
+  <si>
+    <t>Test Gun</t>
   </si>
 </sst>
 </file>
@@ -683,9 +695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDAFB37-BC4F-43E6-8574-A43CDCD4006E}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6">
         <v>4</v>
@@ -1065,6 +1077,35 @@
       </c>
       <c r="L11" s="11" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1382,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9B6098-EF80-434F-8A4C-B8A7BE87648E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -1577,7 +1618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,6 +1805,41 @@
         <v>3</v>
       </c>
       <c r="L5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="L7">
         <v>12</v>
       </c>
     </row>

--- a/40k_sim_workbook.xlsx
+++ b/40k_sim_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Git\40k-Pygame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A458995-FB08-4DC1-AC41-B14AB8D3B599}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F16BF-4EFA-4634-9230-9FDB9D0E7BFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="990" windowWidth="21840" windowHeight="13740" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>Weapon</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Poweraxe</t>
-  </si>
-  <si>
-    <t>Powerfist</t>
   </si>
   <si>
     <t>User</t>
@@ -697,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5">
         <v>12</v>
@@ -1425,7 +1422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,27 +1486,27 @@
         <v>4</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1529,7 +1526,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -1549,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="8">
         <v>-3</v>
@@ -1582,9 +1579,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A7" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
@@ -1700,7 +1695,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,7 +1805,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1950,7 +1945,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1985,7 +1980,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14">
         <v>5</v>

--- a/40k_sim_workbook.xlsx
+++ b/40k_sim_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Git\40k-Pygame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050F16BF-4EFA-4634-9230-9FDB9D0E7BFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA5B351-FC48-4C50-B21A-09C820F75955}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="990" windowWidth="21840" windowHeight="13740" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6">
         <v>2</v>
@@ -1613,7 +1613,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/40k_sim_workbook.xlsx
+++ b/40k_sim_workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Git\40k-Pygame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA5B351-FC48-4C50-B21A-09C820F75955}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9B0C37-351D-420E-BA10-DB6C4DD60A95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="990" windowWidth="21840" windowHeight="13740" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
+    <workbookView xWindow="12510" yWindow="855" windowWidth="15210" windowHeight="10335" activeTab="1" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Templar Ranged Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>Weapon</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>Test Gun</t>
+  </si>
+  <si>
+    <t>Assault Cannon</t>
+  </si>
+  <si>
+    <t>Dreadnought</t>
+  </si>
+  <si>
+    <t>Dreadnought Combat Weapon</t>
+  </si>
+  <si>
+    <t>2x</t>
   </si>
 </sst>
 </file>
@@ -690,11 +702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDAFB37-BC4F-43E6-8574-A43CDCD4006E}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,6 +1422,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="5">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1420,9 +1461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9B6098-EF80-434F-8A4C-B8A7BE87648E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1590,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="8">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1569,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -1580,6 +1621,23 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
@@ -1609,11 +1667,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC9FF83-A4B4-495A-8CD6-852B5A72C621}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,6 +2069,41 @@
       </c>
       <c r="L14">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
